--- a/data/trans_orig/DESPLA_MEDIO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DESPLA_MEDIO-Estudios-trans_orig.xlsx
@@ -740,97 +740,97 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1737</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,66%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>1356</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>3,09%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>1575</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -853,97 +853,97 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>1737</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>2,66%</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>1356</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>3,09%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>1575</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1227,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1356</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1242,12 +1242,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1535,97 +1535,97 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2852</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0,33%</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>1485</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>0,28%</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="inlineStr">
-        <is>
-          <t>2110</t>
-        </is>
-      </c>
-      <c r="U11" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2330,97 +2330,97 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>1955</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>0,72%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K18" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>1310</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O18" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P18" s="2" t="inlineStr">
-        <is>
-          <t>0,47%</t>
-        </is>
-      </c>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="inlineStr">
-        <is>
-          <t>1569</t>
-        </is>
-      </c>
-      <c r="U18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3125,97 +3125,97 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>2510</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,21%</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K25" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>1420</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O25" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P25" s="2" t="inlineStr">
-        <is>
-          <t>0,17%</t>
-        </is>
-      </c>
-      <c r="Q25" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S25" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T25" s="2" t="inlineStr">
-        <is>
-          <t>1902</t>
-        </is>
-      </c>
-      <c r="U25" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5897,12 +5897,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1143</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5912,12 +5912,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -7578,97 +7578,97 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>962</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,03%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>753</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>0,74%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>843</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -7691,97 +7691,97 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>962</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>1,03%</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>753</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>0,74%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>843</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -8373,97 +8373,97 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>859</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0,25%</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>843</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>0,25%</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="U11" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -8486,97 +8486,97 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>859</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,25%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>843</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>0,25%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="U12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -9168,97 +9168,97 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>671</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>0,31%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K18" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>708</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O18" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P18" s="2" t="inlineStr">
-        <is>
-          <t>0,26%</t>
-        </is>
-      </c>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="inlineStr">
-        <is>
-          <t>692</t>
-        </is>
-      </c>
-      <c r="U18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -9281,97 +9281,97 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>671</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>0,31%</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K19" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>708</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O19" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>0,26%</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="inlineStr">
-        <is>
-          <t>692</t>
-        </is>
-      </c>
-      <c r="U19" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -9963,97 +9963,97 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>798</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,12%</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K25" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>775</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O25" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P25" s="2" t="inlineStr">
-        <is>
-          <t>0,11%</t>
-        </is>
-      </c>
-      <c r="Q25" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S25" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T25" s="2" t="inlineStr">
-        <is>
-          <t>786</t>
-        </is>
-      </c>
-      <c r="U25" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -10076,97 +10076,97 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>798</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>0,12%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K26" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>775</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O26" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P26" s="2" t="inlineStr">
-        <is>
-          <t>0,11%</t>
-        </is>
-      </c>
-      <c r="Q26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T26" s="2" t="inlineStr">
-        <is>
-          <t>786</t>
-        </is>
-      </c>
-      <c r="U26" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/DESPLA_MEDIO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DESPLA_MEDIO-Estudios-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Medios de transporte a la actividad principal en Andalucia</t>
+          <t>Medios de transporte a la actividad principal en Andalucia (tasa de respuesta: 99,38%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3964,7 +3964,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Medios de transporte a la actividad principal en C.Valenciana</t>
+          <t>Medios de transporte a la actividad principal en C.Valenciana (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7383,7 +7383,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Medios de transporte a la actividad principal en Barcelona</t>
+          <t>Medios de transporte a la actividad principal en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/DESPLA_MEDIO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DESPLA_MEDIO-Estudios-trans_orig.xlsx
@@ -966,12 +966,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>161</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3570</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -1001,12 +1001,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8830</t>
+          <t>8337</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>27032</t>
+          <t>25253</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>61,53%</t>
+          <t>57,47%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1036,12 +1036,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>8512</t>
+          <t>8571</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>29942</t>
+          <t>33107</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>27,4%</t>
+          <t>30,3%</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45128</t>
+          <t>45712</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>59478</t>
+          <t>59538</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1094,12 +1094,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>69,09%</t>
+          <t>69,98%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,05%</t>
+          <t>91,15%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,12 +1114,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10171</t>
+          <t>10816</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23725</t>
+          <t>23818</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1129,12 +1129,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>24,62%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>54,0%</t>
+          <t>54,21%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>59736</t>
+          <t>57261</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>81989</t>
+          <t>82168</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1164,12 +1164,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>54,67%</t>
+          <t>52,41%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>75,04%</t>
+          <t>75,21%</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5536</t>
+          <t>5949</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>6218</t>
+          <t>5666</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,19%</t>
         </is>
       </c>
     </row>
@@ -1305,12 +1305,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3956</t>
+          <t>3817</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17205</t>
+          <t>17718</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1320,12 +1320,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,34%</t>
+          <t>27,12%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,12 +1340,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6526</t>
+          <t>7011</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17793</t>
+          <t>18283</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>40,5%</t>
+          <t>41,61%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,12 +1375,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>13482</t>
+          <t>13575</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>30469</t>
+          <t>30705</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1390,12 +1390,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>28,1%</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>764</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9041</t>
+          <t>9211</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1663,12 +1663,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1683,12 +1683,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>952</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>7173</t>
+          <t>7767</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1698,12 +1698,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1718,12 +1718,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>2632</t>
+          <t>2710</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>13153</t>
+          <t>13651</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,98%</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1761,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24417</t>
+          <t>23293</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>92185</t>
+          <t>92600</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1776,12 +1776,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1796,12 +1796,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>40757</t>
+          <t>41868</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>83488</t>
+          <t>83447</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1831,12 +1831,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>73602</t>
+          <t>67334</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>167077</t>
+          <t>163820</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1846,12 +1846,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>11,78%</t>
         </is>
       </c>
     </row>
@@ -1874,12 +1874,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>639947</t>
+          <t>636428</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>793879</t>
+          <t>791332</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>74,66%</t>
+          <t>74,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>92,62%</t>
+          <t>92,32%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,12 +1909,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>183514</t>
+          <t>182165</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>328399</t>
+          <t>329123</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1924,12 +1924,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>34,39%</t>
+          <t>34,14%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>61,54%</t>
+          <t>61,68%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,12 +1944,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>856024</t>
+          <t>840805</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1175972</t>
+          <t>1164309</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>61,55%</t>
+          <t>60,46%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>84,56%</t>
+          <t>83,72%</t>
         </is>
       </c>
     </row>
@@ -1987,12 +1987,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3028</t>
+          <t>3415</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24069</t>
+          <t>24123</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2022,12 +2022,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3549</t>
+          <t>3237</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>262860</t>
+          <t>244290</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2037,12 +2037,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>49,26%</t>
+          <t>45,78%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2057,12 +2057,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>11676</t>
+          <t>12957</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>324563</t>
+          <t>326346</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2072,12 +2072,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
+          <t>23,47%</t>
         </is>
       </c>
     </row>
@@ -2100,12 +2100,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>29494</t>
+          <t>32965</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>106446</t>
+          <t>112354</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2115,12 +2115,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>67714</t>
+          <t>67583</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>134628</t>
+          <t>136539</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2150,12 +2150,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>25,59%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2170,12 +2170,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>103581</t>
+          <t>93246</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>238934</t>
+          <t>235890</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>16,96%</t>
         </is>
       </c>
     </row>
@@ -2448,7 +2448,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8167</t>
+          <t>9082</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8632</t>
+          <t>7427</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2513,12 +2513,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>325</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>10254</t>
+          <t>11773</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,03%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>2,14%</t>
         </is>
       </c>
     </row>
@@ -2556,12 +2556,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8840</t>
+          <t>8904</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>26289</t>
+          <t>25362</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2571,12 +2571,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2591,12 +2591,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>14458</t>
+          <t>15370</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>32046</t>
+          <t>31925</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2606,12 +2606,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2626,12 +2626,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>26815</t>
+          <t>27387</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>50631</t>
+          <t>50987</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>9,29%</t>
         </is>
       </c>
     </row>
@@ -2669,12 +2669,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>183437</t>
+          <t>180904</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>213913</t>
+          <t>212837</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2684,12 +2684,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>67,44%</t>
+          <t>66,51%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>78,64%</t>
+          <t>78,25%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2704,12 +2704,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>171880</t>
+          <t>171088</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>198716</t>
+          <t>197529</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2719,12 +2719,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>62,05%</t>
+          <t>61,76%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>71,73%</t>
+          <t>71,31%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2739,12 +2739,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>363242</t>
+          <t>362063</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>404745</t>
+          <t>403182</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2754,12 +2754,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>66,16%</t>
+          <t>65,95%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>73,72%</t>
+          <t>73,44%</t>
         </is>
       </c>
     </row>
@@ -2782,12 +2782,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3934</t>
+          <t>4033</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>15434</t>
+          <t>15766</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2797,47 +2797,47 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
+          <t>1,48%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>5,8%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1721</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>9091</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
           <t>1,45%</t>
         </is>
       </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>5,67%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>4008</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>1562</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>9013</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>1,45%</t>
-        </is>
-      </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2852,12 +2852,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>6698</t>
+          <t>6751</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>19623</t>
+          <t>19717</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2867,12 +2867,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,59%</t>
         </is>
       </c>
     </row>
@@ -2895,12 +2895,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>36026</t>
+          <t>36021</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>61246</t>
+          <t>61890</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2930,12 +2930,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>53288</t>
+          <t>52914</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>78214</t>
+          <t>77627</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2945,12 +2945,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>28,23%</t>
+          <t>28,02%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2965,12 +2965,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>93392</t>
+          <t>94667</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>130394</t>
+          <t>130294</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -2980,12 +2980,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>23,73%</t>
         </is>
       </c>
     </row>
@@ -3238,12 +3238,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1406</t>
+          <t>1376</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>11957</t>
+          <t>12023</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3258,7 +3258,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3273,12 +3273,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1393</t>
+          <t>1579</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>10891</t>
+          <t>10909</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3288,12 +3288,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3308,12 +3308,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4718</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>17545</t>
+          <t>19039</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,93%</t>
         </is>
       </c>
     </row>
@@ -3351,12 +3351,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>40234</t>
+          <t>35278</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>102974</t>
+          <t>104555</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3366,12 +3366,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3386,12 +3386,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>76361</t>
+          <t>72729</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>124465</t>
+          <t>126016</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3401,12 +3401,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3421,12 +3421,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>119877</t>
+          <t>119473</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>219339</t>
+          <t>219238</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
@@ -3464,12 +3464,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>892541</t>
+          <t>892578</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1080402</t>
+          <t>1083555</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3479,12 +3479,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>74,72%</t>
+          <t>74,73%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>90,45%</t>
+          <t>90,72%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3499,12 +3499,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>370384</t>
+          <t>360334</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>533275</t>
+          <t>535169</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3514,12 +3514,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>43,34%</t>
+          <t>42,16%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>62,4%</t>
+          <t>62,62%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3534,12 +3534,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>1287322</t>
+          <t>1310682</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>1639369</t>
+          <t>1629932</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>62,83%</t>
+          <t>63,97%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>80,01%</t>
+          <t>79,55%</t>
         </is>
       </c>
     </row>
@@ -3577,12 +3577,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>9784</t>
+          <t>9899</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>34826</t>
+          <t>34438</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -3592,12 +3592,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3612,12 +3612,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>6951</t>
+          <t>6918</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>252007</t>
+          <t>294397</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>29,49%</t>
+          <t>34,45%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3647,12 +3647,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>25073</t>
+          <t>24816</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>367758</t>
+          <t>363306</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -3662,12 +3662,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>17,73%</t>
         </is>
       </c>
     </row>
@@ -3690,12 +3690,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>64086</t>
+          <t>65772</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>171174</t>
+          <t>172083</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -3705,12 +3705,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3725,12 +3725,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>143331</t>
+          <t>134433</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>215072</t>
+          <t>213477</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -3740,12 +3740,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>25,17%</t>
+          <t>24,98%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3760,12 +3760,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>222202</t>
+          <t>200817</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>380116</t>
+          <t>381006</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -3775,12 +3775,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>18,59%</t>
         </is>
       </c>
     </row>
@@ -7804,12 +7804,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9808</t>
+          <t>10376</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25982</t>
+          <t>27506</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -7819,12 +7819,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,7%</t>
+          <t>29,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -7839,12 +7839,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>14517</t>
+          <t>14052</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>29973</t>
+          <t>30134</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -7854,12 +7854,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>29,49%</t>
+          <t>29,65%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -7874,12 +7874,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>27240</t>
+          <t>26511</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>48679</t>
+          <t>49538</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -7889,12 +7889,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>25,35%</t>
         </is>
       </c>
     </row>
@@ -7917,12 +7917,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13199</t>
+          <t>13028</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29504</t>
+          <t>27642</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -7932,12 +7932,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,46%</t>
+          <t>29,47%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -7952,12 +7952,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7384</t>
+          <t>7455</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18411</t>
+          <t>17958</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -7967,12 +7967,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -7987,12 +7987,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>23686</t>
+          <t>23794</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>41685</t>
+          <t>42166</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -8002,12 +8002,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>21,58%</t>
         </is>
       </c>
     </row>
@@ -8030,12 +8030,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>1883</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18560</t>
+          <t>20334</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -8045,12 +8045,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>21,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -8065,12 +8065,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2305</t>
+          <t>2418</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>13135</t>
+          <t>13074</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -8080,12 +8080,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -8100,12 +8100,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>6385</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>24286</t>
+          <t>26138</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -8115,12 +8115,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>13,38%</t>
         </is>
       </c>
     </row>
@@ -8143,12 +8143,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40018</t>
+          <t>40288</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>60674</t>
+          <t>60608</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -8158,12 +8158,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>42,67%</t>
+          <t>42,96%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>64,7%</t>
+          <t>64,63%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -8178,12 +8178,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>54835</t>
+          <t>54837</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>71862</t>
+          <t>71753</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>70,71%</t>
+          <t>70,6%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -8213,12 +8213,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>101001</t>
+          <t>99703</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>126650</t>
+          <t>128492</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -8228,12 +8228,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>51,69%</t>
+          <t>51,02%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>64,81%</t>
+          <t>65,75%</t>
         </is>
       </c>
     </row>
@@ -8599,12 +8599,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>80242</t>
+          <t>81173</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>104083</t>
+          <t>103619</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -8614,12 +8614,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,07%</t>
+          <t>29,94%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -8634,12 +8634,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>125508</t>
+          <t>125115</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>150437</t>
+          <t>151253</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -8649,12 +8649,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>36,94%</t>
+          <t>36,82%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>44,28%</t>
+          <t>44,52%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -8669,12 +8669,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>213170</t>
+          <t>211945</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>247223</t>
+          <t>247768</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -8684,12 +8684,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>36,04%</t>
+          <t>36,12%</t>
         </is>
       </c>
     </row>
@@ -8712,12 +8712,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>119799</t>
+          <t>118839</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>145769</t>
+          <t>145555</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -8727,12 +8727,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>34,61%</t>
+          <t>34,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>42,12%</t>
+          <t>42,05%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -8747,12 +8747,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>54300</t>
+          <t>53163</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>73277</t>
+          <t>73627</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -8762,12 +8762,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -8782,12 +8782,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>178239</t>
+          <t>179040</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>211188</t>
+          <t>213019</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -8797,12 +8797,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>26,1%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>30,79%</t>
+          <t>31,06%</t>
         </is>
       </c>
     </row>
@@ -8825,12 +8825,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19765</t>
+          <t>19179</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>32249</t>
+          <t>32050</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -8840,12 +8840,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -8860,12 +8860,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6316</t>
+          <t>6277</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15633</t>
+          <t>15400</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -8875,12 +8875,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -8895,12 +8895,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>28211</t>
+          <t>27863</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>43940</t>
+          <t>44325</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -8910,12 +8910,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>6,46%</t>
         </is>
       </c>
     </row>
@@ -8938,12 +8938,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>86219</t>
+          <t>85768</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>110760</t>
+          <t>108844</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -8953,12 +8953,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>24,78%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>32,0%</t>
+          <t>31,45%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -8973,12 +8973,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>117157</t>
+          <t>117303</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>139707</t>
+          <t>142216</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -8988,12 +8988,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>34,48%</t>
+          <t>34,52%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>41,12%</t>
+          <t>41,86%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -9008,12 +9008,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>208156</t>
+          <t>208307</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>243886</t>
+          <t>242815</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -9023,12 +9023,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>30,35%</t>
+          <t>30,37%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>35,4%</t>
         </is>
       </c>
     </row>
@@ -9394,12 +9394,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>42631</t>
+          <t>42319</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>59840</t>
+          <t>59237</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -9409,12 +9409,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>27,08%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -9429,12 +9429,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>84097</t>
+          <t>84080</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>106483</t>
+          <t>106812</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -9449,7 +9449,7 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>38,85%</t>
+          <t>38,97%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -9464,12 +9464,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>130643</t>
+          <t>132562</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>160229</t>
+          <t>161096</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -9479,12 +9479,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>26,51%</t>
+          <t>26,9%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>32,51%</t>
+          <t>32,68%</t>
         </is>
       </c>
     </row>
@@ -9507,12 +9507,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>68712</t>
+          <t>68998</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>88984</t>
+          <t>88172</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -9522,12 +9522,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>31,41%</t>
+          <t>31,54%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>40,67%</t>
+          <t>40,3%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -9542,12 +9542,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>53606</t>
+          <t>54208</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>72200</t>
+          <t>72674</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -9557,12 +9557,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>26,34%</t>
+          <t>26,51%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -9577,12 +9577,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>128569</t>
+          <t>127952</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>154517</t>
+          <t>155097</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -9592,12 +9592,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>26,09%</t>
+          <t>25,96%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>31,47%</t>
         </is>
       </c>
     </row>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>19493</t>
+          <t>20244</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>33280</t>
+          <t>32870</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -9635,12 +9635,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>15,02%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -9655,12 +9655,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>18311</t>
+          <t>17173</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>33684</t>
+          <t>32542</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -9670,12 +9670,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -9690,12 +9690,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>41158</t>
+          <t>41207</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>61566</t>
+          <t>61398</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -9705,12 +9705,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>12,46%</t>
         </is>
       </c>
     </row>
@@ -9733,12 +9733,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>54530</t>
+          <t>55451</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>73740</t>
+          <t>73045</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -9748,12 +9748,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>25,35%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>33,71%</t>
+          <t>33,39%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -9768,12 +9768,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>81157</t>
+          <t>81610</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>103601</t>
+          <t>102514</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -9783,12 +9783,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>29,61%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>37,8%</t>
+          <t>37,4%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -9803,12 +9803,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>141142</t>
+          <t>141149</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>170658</t>
+          <t>169981</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -9823,7 +9823,7 @@
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>34,62%</t>
+          <t>34,49%</t>
         </is>
       </c>
     </row>
@@ -10189,12 +10189,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>142754</t>
+          <t>142847</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>175938</t>
+          <t>175272</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -10204,12 +10204,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>26,71%</t>
+          <t>26,61%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -10224,12 +10224,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>232780</t>
+          <t>235528</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>270171</t>
+          <t>271986</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -10239,12 +10239,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>32,92%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>37,76%</t>
+          <t>38,01%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -10259,12 +10259,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>386281</t>
+          <t>389109</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>437657</t>
+          <t>438438</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -10274,12 +10274,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>28,11%</t>
+          <t>28,32%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>31,85%</t>
+          <t>31,91%</t>
         </is>
       </c>
     </row>
@@ -10302,12 +10302,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>213144</t>
+          <t>214085</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>249747</t>
+          <t>248852</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -10317,12 +10317,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>32,5%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>37,92%</t>
+          <t>37,78%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -10337,12 +10337,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>122360</t>
+          <t>124805</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>152665</t>
+          <t>153485</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -10352,12 +10352,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -10372,12 +10372,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>341959</t>
+          <t>344637</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>391238</t>
+          <t>392449</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -10387,12 +10387,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>28,47%</t>
+          <t>28,56%</t>
         </is>
       </c>
     </row>
@@ -10415,12 +10415,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>47613</t>
+          <t>47853</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>72284</t>
+          <t>71382</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -10430,12 +10430,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -10450,12 +10450,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>31776</t>
+          <t>31303</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>52793</t>
+          <t>53172</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -10465,12 +10465,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -10485,12 +10485,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>84486</t>
+          <t>85102</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>115394</t>
+          <t>114822</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -10500,12 +10500,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>8,36%</t>
         </is>
       </c>
     </row>
@@ -10528,12 +10528,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>191829</t>
+          <t>194559</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>229415</t>
+          <t>232207</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -10543,12 +10543,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>29,54%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>34,83%</t>
+          <t>35,25%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -10563,12 +10563,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>266265</t>
+          <t>264819</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>302700</t>
+          <t>304214</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -10578,12 +10578,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>37,21%</t>
+          <t>37,01%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>42,31%</t>
+          <t>42,52%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -10598,12 +10598,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>467372</t>
+          <t>469083</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>522779</t>
+          <t>522074</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -10613,12 +10613,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>34,01%</t>
+          <t>34,14%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>38,04%</t>
+          <t>37,99%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/DESPLA_MEDIO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DESPLA_MEDIO-Estudios-trans_orig.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -961,32 +961,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>2731</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>752</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4076</t>
+          <t>7014</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -996,32 +996,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14670</t>
+          <t>13024</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8337</t>
+          <t>8294</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>25253</t>
+          <t>19302</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>28,34%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>57,47%</t>
+          <t>42,0%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1031,32 +1031,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>15679</t>
+          <t>15754</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>8571</t>
+          <t>9877</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>33107</t>
+          <t>23466</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>30,3%</t>
+          <t>18,68%</t>
         </is>
       </c>
     </row>
@@ -1074,32 +1074,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>54287</t>
+          <t>63700</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45712</t>
+          <t>55329</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>59538</t>
+          <t>70166</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>83,11%</t>
+          <t>79,95%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>69,98%</t>
+          <t>69,45%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,15%</t>
+          <t>88,07%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1109,32 +1109,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17207</t>
+          <t>19005</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10816</t>
+          <t>13739</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23818</t>
+          <t>25830</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>39,16%</t>
+          <t>41,36%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>24,62%</t>
+          <t>29,9%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>54,21%</t>
+          <t>56,21%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1144,32 +1144,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>71494</t>
+          <t>82705</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>57261</t>
+          <t>70898</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>82168</t>
+          <t>92667</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>65,44%</t>
+          <t>65,83%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>52,41%</t>
+          <t>56,44%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>75,21%</t>
+          <t>73,76%</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -1197,12 +1197,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5949</t>
+          <t>6244</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
@@ -1267,12 +1267,12 @@
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>5666</t>
+          <t>7017</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>5,59%</t>
         </is>
       </c>
     </row>
@@ -1300,32 +1300,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8825</t>
+          <t>11254</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3817</t>
+          <t>5223</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17718</t>
+          <t>19713</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,12%</t>
+          <t>24,74%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1335,32 +1335,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12060</t>
+          <t>13925</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7011</t>
+          <t>8833</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18283</t>
+          <t>20451</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>30,3%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>19,22%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>41,61%</t>
+          <t>44,5%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1370,32 +1370,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>20885</t>
+          <t>25178</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>13575</t>
+          <t>17484</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>30705</t>
+          <t>34991</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>27,85%</t>
         </is>
       </c>
     </row>
@@ -1413,17 +1413,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>65322</t>
+          <t>79672</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>65322</t>
+          <t>79672</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>65322</t>
+          <t>79672</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1448,17 +1448,17 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>43937</t>
+          <t>45953</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>43937</t>
+          <t>45953</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>43937</t>
+          <t>45953</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1483,17 +1483,17 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>109259</t>
+          <t>125625</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>109259</t>
+          <t>125625</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>109259</t>
+          <t>125625</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1643,32 +1643,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3702</t>
+          <t>4469</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>1684</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9211</t>
+          <t>9783</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1678,32 +1678,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2989</t>
+          <t>6882</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>952</t>
+          <t>2442</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>7767</t>
+          <t>15923</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1713,32 +1713,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>6691</t>
+          <t>11351</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>2710</t>
+          <t>5816</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>13651</t>
+          <t>21095</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,72%</t>
         </is>
       </c>
     </row>
@@ -1756,32 +1756,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>60272</t>
+          <t>74765</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23293</t>
+          <t>57686</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>92600</t>
+          <t>95958</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1791,32 +1791,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>65422</t>
+          <t>81148</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>41868</t>
+          <t>65953</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>83447</t>
+          <t>97008</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>15,32%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>18,32%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1826,32 +1826,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>125694</t>
+          <t>155913</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>67334</t>
+          <t>133021</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>163820</t>
+          <t>179240</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>14,6%</t>
         </is>
       </c>
     </row>
@@ -1869,32 +1869,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>708318</t>
+          <t>516999</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>636428</t>
+          <t>489619</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>791332</t>
+          <t>544158</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>82,64%</t>
+          <t>74,09%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>74,25%</t>
+          <t>70,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>92,32%</t>
+          <t>77,98%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1904,32 +1904,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>280109</t>
+          <t>306310</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>182165</t>
+          <t>286003</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>329123</t>
+          <t>327420</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>52,49%</t>
+          <t>57,83%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>34,14%</t>
+          <t>54,0%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>61,68%</t>
+          <t>61,82%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1939,32 +1939,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>988427</t>
+          <t>823310</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>840805</t>
+          <t>790632</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1164309</t>
+          <t>861880</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>71,07%</t>
+          <t>67,08%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>60,46%</t>
+          <t>64,41%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>83,72%</t>
+          <t>70,22%</t>
         </is>
       </c>
     </row>
@@ -1982,32 +1982,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11904</t>
+          <t>14927</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3415</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24123</t>
+          <t>27695</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2017,32 +2017,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>73344</t>
+          <t>7892</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3237</t>
+          <t>3696</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>244290</t>
+          <t>14067</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>45,78%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2052,32 +2052,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>85248</t>
+          <t>22819</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>12957</t>
+          <t>14512</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>326346</t>
+          <t>35425</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>2,89%</t>
         </is>
       </c>
     </row>
@@ -2095,32 +2095,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>72942</t>
+          <t>86616</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>32965</t>
+          <t>66747</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>112354</t>
+          <t>109461</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2130,32 +2130,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>111768</t>
+          <t>127402</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>67583</t>
+          <t>110256</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>136539</t>
+          <t>147258</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>24,05%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>20,82%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>27,8%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2165,32 +2165,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>184710</t>
+          <t>214017</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>93246</t>
+          <t>187155</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>235890</t>
+          <t>240877</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>19,62%</t>
         </is>
       </c>
     </row>
@@ -2208,17 +2208,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>857138</t>
+          <t>697776</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>857138</t>
+          <t>697776</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>857138</t>
+          <t>697776</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2243,17 +2243,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>533632</t>
+          <t>529634</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>533632</t>
+          <t>529634</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>533632</t>
+          <t>529634</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2278,17 +2278,17 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>1390770</t>
+          <t>1227410</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>1390770</t>
+          <t>1227410</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>1390770</t>
+          <t>1227410</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>2718</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9082</t>
+          <t>9366</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1483</t>
+          <t>1452</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -2483,12 +2483,12 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>7427</t>
+          <t>7234</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2508,32 +2508,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>3140</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>1304</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>11773</t>
+          <t>11573</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>1,91%</t>
         </is>
       </c>
     </row>
@@ -2551,32 +2551,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>15557</t>
+          <t>17576</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8904</t>
+          <t>9976</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>25362</t>
+          <t>28302</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2586,32 +2586,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>22203</t>
+          <t>25291</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>15370</t>
+          <t>17587</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>31925</t>
+          <t>35710</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2621,32 +2621,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>37761</t>
+          <t>42868</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>27387</t>
+          <t>31043</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>50987</t>
+          <t>57604</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>9,53%</t>
         </is>
       </c>
     </row>
@@ -2664,32 +2664,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>198482</t>
+          <t>216799</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>180904</t>
+          <t>198612</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>212837</t>
+          <t>232338</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>72,97%</t>
+          <t>72,71%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>66,51%</t>
+          <t>66,61%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>78,25%</t>
+          <t>77,92%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2699,32 +2699,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>185435</t>
+          <t>201868</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>171088</t>
+          <t>185893</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>197529</t>
+          <t>215645</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>66,94%</t>
+          <t>65,9%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>61,76%</t>
+          <t>60,68%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>71,31%</t>
+          <t>70,4%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2734,32 +2734,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>383917</t>
+          <t>418667</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>362063</t>
+          <t>395228</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>403182</t>
+          <t>438675</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>69,93%</t>
+          <t>69,26%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>65,95%</t>
+          <t>65,38%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>73,44%</t>
+          <t>72,57%</t>
         </is>
       </c>
     </row>
@@ -2777,32 +2777,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>7991</t>
+          <t>9376</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>4033</t>
+          <t>4878</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>15766</t>
+          <t>18451</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2812,32 +2812,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>4008</t>
+          <t>5493</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>9091</t>
+          <t>11534</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2847,32 +2847,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>11999</t>
+          <t>14868</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>6751</t>
+          <t>8818</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>19717</t>
+          <t>23689</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,92%</t>
         </is>
       </c>
     </row>
@@ -2890,32 +2890,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>48314</t>
+          <t>51692</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>36021</t>
+          <t>39308</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>61890</t>
+          <t>66047</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>17,76%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2925,32 +2925,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>63888</t>
+          <t>72228</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>52914</t>
+          <t>60036</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>77627</t>
+          <t>88172</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>23,58%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>28,78%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2960,32 +2960,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>112202</t>
+          <t>123921</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>94667</t>
+          <t>105527</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>130294</t>
+          <t>142967</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>23,73%</t>
+          <t>23,65%</t>
         </is>
       </c>
     </row>
@@ -3003,17 +3003,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>272001</t>
+          <t>298161</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>272001</t>
+          <t>298161</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>272001</t>
+          <t>298161</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3038,17 +3038,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>277017</t>
+          <t>306332</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>277017</t>
+          <t>306332</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>277017</t>
+          <t>306332</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3073,17 +3073,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>549018</t>
+          <t>604493</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>549018</t>
+          <t>604493</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>549018</t>
+          <t>604493</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3233,32 +3233,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>5359</t>
+          <t>7187</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1376</t>
+          <t>2930</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>12023</t>
+          <t>14745</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3268,32 +3268,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>4472</t>
+          <t>8333</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1579</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>10909</t>
+          <t>19655</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3303,32 +3303,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>9831</t>
+          <t>15520</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4519</t>
+          <t>8572</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>19039</t>
+          <t>27520</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>1,41%</t>
         </is>
       </c>
     </row>
@@ -3346,32 +3346,32 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>76838</t>
+          <t>95072</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>35278</t>
+          <t>76724</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>104555</t>
+          <t>116749</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3381,32 +3381,32 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>102296</t>
+          <t>119463</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>72729</t>
+          <t>100600</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>126016</t>
+          <t>139050</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3416,32 +3416,32 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>179134</t>
+          <t>214535</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>119473</t>
+          <t>187835</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>219238</t>
+          <t>243987</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>12,46%</t>
         </is>
       </c>
     </row>
@@ -3459,32 +3459,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>961086</t>
+          <t>797499</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>892578</t>
+          <t>761010</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1083555</t>
+          <t>825198</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>80,46%</t>
+          <t>74,14%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>74,73%</t>
+          <t>70,75%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>90,72%</t>
+          <t>76,72%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3494,32 +3494,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>482750</t>
+          <t>527182</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>360334</t>
+          <t>502530</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>535169</t>
+          <t>555950</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>56,49%</t>
+          <t>59,78%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>42,16%</t>
+          <t>56,98%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>62,62%</t>
+          <t>63,04%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3529,32 +3529,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>1443837</t>
+          <t>1324682</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>1310682</t>
+          <t>1281155</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>1629932</t>
+          <t>1363711</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>70,46%</t>
+          <t>67,67%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>63,97%</t>
+          <t>65,45%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>79,55%</t>
+          <t>69,66%</t>
         </is>
       </c>
     </row>
@@ -3572,32 +3572,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>21096</t>
+          <t>26290</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>9899</t>
+          <t>17096</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>34438</t>
+          <t>40286</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3607,32 +3607,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>77352</t>
+          <t>13385</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>6918</t>
+          <t>7811</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>294397</t>
+          <t>20562</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>34,45%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3642,32 +3642,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>98448</t>
+          <t>39675</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>24816</t>
+          <t>28816</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>363306</t>
+          <t>54842</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>2,8%</t>
         </is>
       </c>
     </row>
@@ -3685,32 +3685,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>130081</t>
+          <t>149562</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>65772</t>
+          <t>127066</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>172083</t>
+          <t>181037</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3720,32 +3720,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>187716</t>
+          <t>213554</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>134433</t>
+          <t>188826</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>213477</t>
+          <t>235579</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>24,98%</t>
+          <t>26,71%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3755,32 +3755,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>317797</t>
+          <t>363116</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>200817</t>
+          <t>330935</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>381006</t>
+          <t>404134</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>20,65%</t>
         </is>
       </c>
     </row>
@@ -3798,17 +3798,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>1194460</t>
+          <t>1075610</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>1194460</t>
+          <t>1075610</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>1194460</t>
+          <t>1075610</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3833,17 +3833,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>854586</t>
+          <t>881918</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>854586</t>
+          <t>881918</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>854586</t>
+          <t>881918</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3868,17 +3868,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>2049047</t>
+          <t>1957529</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>2049047</t>
+          <t>1957529</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>2049047</t>
+          <t>1957529</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3964,7 +3964,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Medios de transporte a la actividad principal en C.Valenciana (tasa de respuesta: 99,9%)</t>
+          <t>Medios de transporte a la actividad principal en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4149,107 +4149,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17354</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12811</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23094</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>32932</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>26075</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>41314</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>50285</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>41461</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>58956</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -4262,107 +4262,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5282</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2128</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5234</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>3990</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>1869</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>7571</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -4375,107 +4375,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16268</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10376</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>27506</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>17,35%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11,06%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>29,33%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>58</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>25906</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>19503</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>34824</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>12,01%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>9,04%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>16,14%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>35432</t>
+          <t>20653</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>28352</t>
+          <t>14052</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>44912</t>
+          <t>30134</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>29,65%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>91</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>61338</t>
+          <t>36922</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>50363</t>
+          <t>26511</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>72866</t>
+          <t>49538</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>25,35%</t>
         </is>
       </c>
     </row>
@@ -4488,107 +4488,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>106197</t>
+          <t>19610</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>95646</t>
+          <t>13028</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>116016</t>
+          <t>27642</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,21%</t>
+          <t>20,91%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,32%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>53,76%</t>
+          <t>29,47%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>104059</t>
+          <t>11692</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>93411</t>
+          <t>7455</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>114446</t>
+          <t>17958</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>38,24%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>34,33%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>42,05%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>85</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>210256</t>
+          <t>31302</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>196036</t>
+          <t>23794</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>226099</t>
+          <t>42166</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>43,09%</t>
+          <t>16,02%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>40,18%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>46,34%</t>
+          <t>21,58%</t>
         </is>
       </c>
     </row>
@@ -4601,107 +4601,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5342</t>
+          <t>7180</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2625</t>
+          <t>1883</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10768</t>
+          <t>20334</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>21,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>5740</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2418</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2126</t>
+          <t>13074</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>5769</t>
+          <t>12920</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2784</t>
+          <t>6385</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>10356</t>
+          <t>26138</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>13,38%</t>
         </is>
       </c>
     </row>
@@ -4714,107 +4714,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>59135</t>
+          <t>50724</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>50838</t>
+          <t>40288</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69072</t>
+          <t>60608</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,4%</t>
+          <t>54,09%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,56%</t>
+          <t>42,96%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,01%</t>
+          <t>64,63%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>157</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>97159</t>
+          <t>63544</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>86797</t>
+          <t>54837</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>108398</t>
+          <t>71753</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>35,7%</t>
+          <t>62,53%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>31,89%</t>
+          <t>53,96%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>39,83%</t>
+          <t>70,6%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>248</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>156294</t>
+          <t>114267</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>143334</t>
+          <t>99703</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>172173</t>
+          <t>128492</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>58,48%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>29,38%</t>
+          <t>51,02%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>35,29%</t>
+          <t>65,75%</t>
         </is>
       </c>
     </row>
@@ -4827,22 +4827,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>186</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>93782</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>93782</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>93782</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4862,22 +4862,22 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>258</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>272136</t>
+          <t>101629</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>272136</t>
+          <t>101629</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>272136</t>
+          <t>101629</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4897,22 +4897,22 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1193</t>
+          <t>444</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>487932</t>
+          <t>195411</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>487932</t>
+          <t>195411</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>487932</t>
+          <t>195411</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4944,107 +4944,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10370</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6799</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15328</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16249</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11523</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23394</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>26619</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>20296</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>34512</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5057,107 +5057,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1649</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4547</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>2308</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>0,05%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>0,26%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>2109</t>
-        </is>
-      </c>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>651</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="inlineStr">
-        <is>
-          <t>5392</t>
-        </is>
-      </c>
-      <c r="U12" s="2" t="inlineStr">
-        <is>
-          <t>0,12%</t>
-        </is>
-      </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5170,107 +5170,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>201</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>109456</t>
+          <t>91737</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94081</t>
+          <t>81173</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>125273</t>
+          <t>103619</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>26,51%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>29,94%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>307</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>145474</t>
+          <t>137603</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>127627</t>
+          <t>125115</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>162767</t>
+          <t>151253</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>40,5%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>36,82%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>44,52%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>508</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>254930</t>
+          <t>229341</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>233490</t>
+          <t>211945</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>278668</t>
+          <t>247768</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>33,44%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>36,12%</t>
         </is>
       </c>
     </row>
@@ -5283,107 +5283,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>969</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>524063</t>
+          <t>132285</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>501801</t>
+          <t>118839</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>545835</t>
+          <t>145555</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>60,7%</t>
+          <t>38,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>58,12%</t>
+          <t>34,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>63,22%</t>
+          <t>42,05%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>148</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>357901</t>
+          <t>63085</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>335202</t>
+          <t>53163</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>382554</t>
+          <t>73627</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>41,03%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>38,43%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>43,86%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1616</t>
+          <t>432</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>881964</t>
+          <t>195370</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>850970</t>
+          <t>179040</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>918206</t>
+          <t>213019</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>50,82%</t>
+          <t>28,48%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>49,03%</t>
+          <t>26,1%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>52,9%</t>
+          <t>31,06%</t>
         </is>
       </c>
     </row>
@@ -5396,107 +5396,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23690</t>
+          <t>25140</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16987</t>
+          <t>19179</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>33248</t>
+          <t>32050</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11677</t>
+          <t>10110</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7240</t>
+          <t>6277</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18487</t>
+          <t>15400</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>84</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>35367</t>
+          <t>35251</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>26573</t>
+          <t>27863</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>46261</t>
+          <t>44325</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>6,46%</t>
         </is>
       </c>
     </row>
@@ -5509,107 +5509,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>226</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>194153</t>
+          <t>96947</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>178554</t>
+          <t>85768</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>215031</t>
+          <t>108844</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>28,01%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>24,78%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>31,45%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>296</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>340435</t>
+          <t>128971</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>318610</t>
+          <t>117303</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>364896</t>
+          <t>142216</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>39,03%</t>
+          <t>37,96%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>36,53%</t>
+          <t>34,52%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>41,86%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>1029</t>
+          <t>522</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>534587</t>
+          <t>225919</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>506290</t>
+          <t>208307</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>565145</t>
+          <t>242815</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>30,8%</t>
+          <t>32,94%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>29,17%</t>
+          <t>30,37%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>35,4%</t>
         </is>
       </c>
     </row>
@@ -5622,22 +5622,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>773</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>863381</t>
+          <t>346110</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>863381</t>
+          <t>346110</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>863381</t>
+          <t>346110</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5657,22 +5657,22 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1530</t>
+          <t>773</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>872195</t>
+          <t>339770</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>872195</t>
+          <t>339770</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>872195</t>
+          <t>339770</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5692,22 +5692,22 @@
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>3169</t>
+          <t>1546</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>1735576</t>
+          <t>685880</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>1735576</t>
+          <t>685880</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>1735576</t>
+          <t>685880</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5739,107 +5739,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2291</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5778</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>3521</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>3524</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>1593</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>7377</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5852,107 +5852,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>3300</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>0,14%</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>0,87%</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K19" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L19" s="2" t="inlineStr">
+      <c r="S19" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="M19" s="2" t="inlineStr">
+      <c r="T19" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="N19" s="2" t="inlineStr">
+      <c r="U19" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O19" s="2" t="inlineStr">
+      <c r="V19" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="P19" s="2" t="inlineStr">
+      <c r="W19" s="2" t="inlineStr">
         <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>520</t>
-        </is>
-      </c>
-      <c r="S19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="inlineStr">
-        <is>
-          <t>2638</t>
-        </is>
-      </c>
-      <c r="U19" s="2" t="inlineStr">
-        <is>
-          <t>0,07%</t>
-        </is>
-      </c>
-      <c r="V19" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="W19" s="2" t="inlineStr">
-        <is>
-          <t>0,33%</t>
         </is>
       </c>
     </row>
@@ -5965,107 +5965,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>36436</t>
+          <t>50711</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>27760</t>
+          <t>42319</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>47616</t>
+          <t>59237</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>27,08%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>255</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>65924</t>
+          <t>95015</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>52405</t>
+          <t>84080</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>78847</t>
+          <t>106812</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>34,66%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>30,68%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>38,97%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>394</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>102359</t>
+          <t>145726</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>87001</t>
+          <t>132562</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>120491</t>
+          <t>161096</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>29,57%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>26,9%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>32,68%</t>
         </is>
       </c>
     </row>
@@ -6078,107 +6078,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>239</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>244328</t>
+          <t>78548</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>227143</t>
+          <t>68998</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>258566</t>
+          <t>88172</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>64,48%</t>
+          <t>35,9%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>59,94%</t>
+          <t>31,54%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>68,23%</t>
+          <t>40,3%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>189</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>237819</t>
+          <t>62639</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>220572</t>
+          <t>54208</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>254380</t>
+          <t>72674</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>57,09%</t>
+          <t>22,85%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>52,95%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>61,06%</t>
+          <t>26,51%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>428</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>482147</t>
+          <t>141187</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>461841</t>
+          <t>127952</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>504159</t>
+          <t>155097</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>60,61%</t>
+          <t>28,65%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>58,05%</t>
+          <t>25,96%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>63,37%</t>
+          <t>31,47%</t>
         </is>
       </c>
     </row>
@@ -6191,107 +6191,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>14756</t>
+          <t>25889</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>8735</t>
+          <t>20244</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>22310</t>
+          <t>32870</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>15,02%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>5007</t>
+          <t>24604</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>2359</t>
+          <t>17173</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>9884</t>
+          <t>32542</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>132</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>19763</t>
+          <t>50493</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>12702</t>
+          <t>41207</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>28282</t>
+          <t>61398</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>12,46%</t>
         </is>
       </c>
     </row>
@@ -6304,107 +6304,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>80612</t>
+          <t>63635</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>69013</t>
+          <t>55451</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>94484</t>
+          <t>73045</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>29,09%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>25,35%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>33,39%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>236</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>106617</t>
+          <t>91837</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>93869</t>
+          <t>81610</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>123030</t>
+          <t>102514</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>33,51%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>29,53%</t>
+          <t>37,4%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>413</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>187229</t>
+          <t>155472</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>168505</t>
+          <t>141149</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>207803</t>
+          <t>169981</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>31,54%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>26,12%</t>
+          <t>34,49%</t>
         </is>
       </c>
     </row>
@@ -6417,22 +6417,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>625</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>378943</t>
+          <t>218782</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>378943</t>
+          <t>218782</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>378943</t>
+          <t>218782</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6452,22 +6452,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>742</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>416600</t>
+          <t>274095</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>416600</t>
+          <t>274095</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>416600</t>
+          <t>274095</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6487,22 +6487,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1356</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>795543</t>
+          <t>492877</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>795543</t>
+          <t>492877</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>795543</t>
+          <t>492877</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6534,107 +6534,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>30015</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>23698</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>37633</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>50413</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>40735</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>61124</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>80429</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>69108</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>93269</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6647,107 +6647,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1751</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>8124</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2588</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>5616</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>6618</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>3965</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>10911</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6760,107 +6760,107 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>373</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>171798</t>
+          <t>158717</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>152747</t>
+          <t>142847</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>193332</t>
+          <t>175272</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>24,1%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>26,61%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>620</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>246829</t>
+          <t>253271</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>223785</t>
+          <t>235528</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>270618</t>
+          <t>271986</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>35,4%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>32,92%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>38,01%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>993</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>418627</t>
+          <t>411988</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>389017</t>
+          <t>389109</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>451819</t>
+          <t>438438</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>28,32%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>31,91%</t>
         </is>
       </c>
     </row>
@@ -6873,107 +6873,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>576</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>874588</t>
+          <t>230443</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>843080</t>
+          <t>214085</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>901841</t>
+          <t>248852</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>59,98%</t>
+          <t>34,99%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>57,82%</t>
+          <t>32,5%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>61,85%</t>
+          <t>37,78%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>369</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>699779</t>
+          <t>137416</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>670383</t>
+          <t>124805</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>733587</t>
+          <t>153485</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>44,83%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>42,95%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>47,0%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>2958</t>
+          <t>945</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>1574367</t>
+          <t>367859</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>1529751</t>
+          <t>344637</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>1617604</t>
+          <t>392449</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>52,15%</t>
+          <t>26,77%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>50,67%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>53,58%</t>
+          <t>28,56%</t>
         </is>
       </c>
     </row>
@@ -6986,107 +6986,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>43788</t>
+          <t>58209</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>33327</t>
+          <t>47853</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>56773</t>
+          <t>71382</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>17110</t>
+          <t>40454</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>11443</t>
+          <t>31303</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>24826</t>
+          <t>53172</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>236</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>60899</t>
+          <t>98663</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>48971</t>
+          <t>85102</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>74948</t>
+          <t>114822</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>8,36%</t>
         </is>
       </c>
     </row>
@@ -7099,107 +7099,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>333900</t>
+          <t>211306</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>309659</t>
+          <t>194559</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>359765</t>
+          <t>232207</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>32,08%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>29,54%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>35,25%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>1032</t>
+          <t>689</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>544211</t>
+          <t>284352</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>512147</t>
+          <t>264819</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>572312</t>
+          <t>304214</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>34,86%</t>
+          <t>39,74%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>37,01%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>36,66%</t>
+          <t>42,52%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>1762</t>
+          <t>1183</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>878111</t>
+          <t>495658</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>841375</t>
+          <t>469083</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>921570</t>
+          <t>522074</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>36,07%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>27,87%</t>
+          <t>34,14%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>37,99%</t>
         </is>
       </c>
     </row>
@@ -7212,22 +7212,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2849</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>1458120</t>
+          <t>658675</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>1458120</t>
+          <t>658675</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>1458120</t>
+          <t>658675</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -7247,22 +7247,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>2869</t>
+          <t>1773</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>1560931</t>
+          <t>715494</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>1560931</t>
+          <t>715494</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>1560931</t>
+          <t>715494</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -7282,22 +7282,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>5718</t>
+          <t>3357</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>3019051</t>
+          <t>1374169</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>3019051</t>
+          <t>1374169</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>3019051</t>
+          <t>1374169</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -7383,7 +7383,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Medios de transporte a la actividad principal en Barcelona (tasa de respuesta: 100,0%)</t>
+          <t>Medios de transporte a la actividad principal en C.Valenciana (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7568,107 +7568,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17354</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>12811</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>23094</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32932</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>26075</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>41314</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50285</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>41461</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>58956</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,08%</t>
         </is>
       </c>
     </row>
@@ -7681,107 +7681,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>649</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5282</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2128</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>711</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5234</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3990</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1869</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7571</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,55%</t>
         </is>
       </c>
     </row>
@@ -7794,107 +7794,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16268</t>
+          <t>25906</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10376</t>
+          <t>19503</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27506</t>
+          <t>34824</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,33%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20653</t>
+          <t>35432</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>14052</t>
+          <t>28352</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>30134</t>
+          <t>44912</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>29,65%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>131</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>36922</t>
+          <t>61338</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>26511</t>
+          <t>50363</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>49538</t>
+          <t>72866</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>14,93%</t>
         </is>
       </c>
     </row>
@@ -7907,107 +7907,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>265</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19610</t>
+          <t>106197</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13028</t>
+          <t>95646</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27642</t>
+          <t>116016</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>49,21%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>44,32%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,47%</t>
+          <t>53,76%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11692</t>
+          <t>104059</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7455</t>
+          <t>93411</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17958</t>
+          <t>114446</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>38,24%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>34,33%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>42,05%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>514</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>31302</t>
+          <t>210256</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>23794</t>
+          <t>196036</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>42166</t>
+          <t>226099</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>43,09%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>40,18%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>21,58%</t>
+          <t>46,34%</t>
         </is>
       </c>
     </row>
@@ -8020,107 +8020,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7180</t>
+          <t>5342</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1883</t>
+          <t>2625</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20334</t>
+          <t>10768</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>21,68%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2126</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,16%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>5740</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>2418</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>13074</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>5,65%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>2,38%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>12,86%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>12920</t>
+          <t>5769</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>6385</t>
+          <t>2784</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>26138</t>
+          <t>10356</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>2,12%</t>
         </is>
       </c>
     </row>
@@ -8133,107 +8133,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50724</t>
+          <t>59135</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40288</t>
+          <t>50838</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>60608</t>
+          <t>69072</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>54,09%</t>
+          <t>27,4%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>42,96%</t>
+          <t>23,56%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>64,63%</t>
+          <t>32,01%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>235</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63544</t>
+          <t>97159</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>54837</t>
+          <t>86797</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>71753</t>
+          <t>108398</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>62,53%</t>
+          <t>35,7%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>53,96%</t>
+          <t>31,89%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>70,6%</t>
+          <t>39,83%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>401</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>114267</t>
+          <t>156294</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>99703</t>
+          <t>143334</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>128492</t>
+          <t>172173</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>58,48%</t>
+          <t>32,03%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>51,02%</t>
+          <t>29,38%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>65,75%</t>
+          <t>35,29%</t>
         </is>
       </c>
     </row>
@@ -8246,22 +8246,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>93782</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>93782</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>93782</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -8281,22 +8281,22 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>640</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>101629</t>
+          <t>272136</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>101629</t>
+          <t>272136</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>101629</t>
+          <t>272136</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -8316,22 +8316,22 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>1193</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>195411</t>
+          <t>487932</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>195411</t>
+          <t>487932</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>195411</t>
+          <t>487932</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -8363,107 +8363,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10370</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6799</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>15328</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16249</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11523</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>23394</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>65</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26619</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>20296</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>34512</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,99%</t>
         </is>
       </c>
     </row>
@@ -8476,107 +8476,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1649</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4547</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,19%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,04%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2308</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,05%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2109</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>651</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5392</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,31%</t>
         </is>
       </c>
     </row>
@@ -8589,107 +8589,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>91737</t>
+          <t>109456</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>81173</t>
+          <t>94081</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>103619</t>
+          <t>125273</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,51%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,94%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>217</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>137603</t>
+          <t>145474</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>125115</t>
+          <t>127627</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>151253</t>
+          <t>162767</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>40,5%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>36,82%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>44,52%</t>
+          <t>18,66%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>398</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>229341</t>
+          <t>254930</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>211945</t>
+          <t>233490</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>247768</t>
+          <t>278668</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>33,44%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>30,9%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>36,12%</t>
+          <t>16,06%</t>
         </is>
       </c>
     </row>
@@ -8702,107 +8702,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>969</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>132285</t>
+          <t>524063</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>118839</t>
+          <t>501801</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>145555</t>
+          <t>545835</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>38,22%</t>
+          <t>60,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>58,12%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>42,05%</t>
+          <t>63,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>647</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>63085</t>
+          <t>357901</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>53163</t>
+          <t>335202</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>73627</t>
+          <t>382554</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>41,03%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>38,43%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>43,86%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>1616</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>195370</t>
+          <t>881964</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>179040</t>
+          <t>850970</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>213019</t>
+          <t>918206</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>28,48%</t>
+          <t>50,82%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>26,1%</t>
+          <t>49,03%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>31,06%</t>
+          <t>52,9%</t>
         </is>
       </c>
     </row>
@@ -8815,107 +8815,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>25140</t>
+          <t>23690</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19179</t>
+          <t>16987</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>32050</t>
+          <t>33248</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10110</t>
+          <t>11677</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6277</t>
+          <t>7240</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15400</t>
+          <t>18487</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>57</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>35251</t>
+          <t>35367</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>27863</t>
+          <t>26573</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>44325</t>
+          <t>46261</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>2,67%</t>
         </is>
       </c>
     </row>
@@ -8928,107 +8928,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>417</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>96947</t>
+          <t>194153</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>85768</t>
+          <t>178554</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>108844</t>
+          <t>215031</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,78%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>31,45%</t>
+          <t>24,91%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>612</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>128971</t>
+          <t>340435</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>117303</t>
+          <t>318610</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>142216</t>
+          <t>364896</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>37,96%</t>
+          <t>39,03%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>34,52%</t>
+          <t>36,53%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>41,86%</t>
+          <t>41,84%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>1029</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>225919</t>
+          <t>534587</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>208307</t>
+          <t>506290</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>242815</t>
+          <t>565145</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>32,94%</t>
+          <t>30,8%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>30,37%</t>
+          <t>29,17%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>35,4%</t>
+          <t>32,56%</t>
         </is>
       </c>
     </row>
@@ -9041,22 +9041,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>346110</t>
+          <t>863381</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>346110</t>
+          <t>863381</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>346110</t>
+          <t>863381</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -9076,22 +9076,22 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>1530</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>339770</t>
+          <t>872195</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>339770</t>
+          <t>872195</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>339770</t>
+          <t>872195</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -9111,22 +9111,22 @@
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1546</t>
+          <t>3169</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>685880</t>
+          <t>1735576</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>685880</t>
+          <t>1735576</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>685880</t>
+          <t>1735576</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -9158,107 +9158,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2291</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>779</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5778</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>413</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3524</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1593</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7377</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,93%</t>
         </is>
       </c>
     </row>
@@ -9271,107 +9271,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0,14%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0,87%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="O19" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I19" s="2" t="inlineStr">
+      <c r="P19" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr">
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>2638</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>0,07%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O19" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S19" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="U19" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="V19" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,33%</t>
         </is>
       </c>
     </row>
@@ -9384,107 +9384,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>50711</t>
+          <t>36436</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>42319</t>
+          <t>27760</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>59237</t>
+          <t>47616</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>27,08%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>95015</t>
+          <t>65924</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>84080</t>
+          <t>52405</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>106812</t>
+          <t>78847</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>34,66%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>38,97%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>159</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>145726</t>
+          <t>102359</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>132562</t>
+          <t>87001</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>161096</t>
+          <t>120491</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>29,57%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>26,9%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>15,15%</t>
         </is>
       </c>
     </row>
@@ -9497,107 +9497,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>423</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>78548</t>
+          <t>244328</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>68998</t>
+          <t>227143</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>88172</t>
+          <t>258566</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>35,9%</t>
+          <t>64,48%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>31,54%</t>
+          <t>59,94%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>40,3%</t>
+          <t>68,23%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>405</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>62639</t>
+          <t>237819</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>54208</t>
+          <t>220572</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>72674</t>
+          <t>254380</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>57,09%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>52,95%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>26,51%</t>
+          <t>61,06%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>828</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>141187</t>
+          <t>482147</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>127952</t>
+          <t>461841</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>155097</t>
+          <t>504159</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>60,61%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>25,96%</t>
+          <t>58,05%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>31,47%</t>
+          <t>63,37%</t>
         </is>
       </c>
     </row>
@@ -9610,107 +9610,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>25889</t>
+          <t>14756</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>20244</t>
+          <t>8735</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>32870</t>
+          <t>22310</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>24604</t>
+          <t>5007</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>17173</t>
+          <t>2359</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>32542</t>
+          <t>9884</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>27</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>50493</t>
+          <t>19763</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>41207</t>
+          <t>12702</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>61398</t>
+          <t>28282</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>3,56%</t>
         </is>
       </c>
     </row>
@@ -9723,107 +9723,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>63635</t>
+          <t>80612</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>55451</t>
+          <t>69013</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>73045</t>
+          <t>94484</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>21,27%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>24,93%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>91837</t>
+          <t>106617</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>81610</t>
+          <t>93869</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>102514</t>
+          <t>123030</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>33,51%</t>
+          <t>25,59%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>22,53%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>37,4%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>332</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>155472</t>
+          <t>187229</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>141149</t>
+          <t>168505</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>169981</t>
+          <t>207803</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>31,54%</t>
+          <t>23,53%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>34,49%</t>
+          <t>26,12%</t>
         </is>
       </c>
     </row>
@@ -9836,22 +9836,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>657</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>218782</t>
+          <t>378943</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>218782</t>
+          <t>378943</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>218782</t>
+          <t>378943</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -9871,22 +9871,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>699</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>274095</t>
+          <t>416600</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>274095</t>
+          <t>416600</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>274095</t>
+          <t>416600</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -9906,22 +9906,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>1356</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>492877</t>
+          <t>795543</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>492877</t>
+          <t>795543</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>492877</t>
+          <t>795543</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -9953,107 +9953,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30015</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>23698</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>37633</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50413</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>40735</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>61124</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>201</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>80429</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>69108</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>93269</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,09%</t>
         </is>
       </c>
     </row>
@@ -10066,107 +10066,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1751</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8124</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2588</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5616</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6618</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3965</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10911</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,36%</t>
         </is>
       </c>
     </row>
@@ -10179,107 +10179,107 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>301</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>158717</t>
+          <t>171798</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>142847</t>
+          <t>152747</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>175272</t>
+          <t>193332</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>26,61%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>387</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>253271</t>
+          <t>246829</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>235528</t>
+          <t>223785</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>271986</t>
+          <t>270618</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>35,4%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>32,92%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>38,01%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>993</t>
+          <t>688</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>411988</t>
+          <t>418627</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>389109</t>
+          <t>389017</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>438438</t>
+          <t>451819</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>28,32%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>31,91%</t>
+          <t>14,97%</t>
         </is>
       </c>
     </row>
@@ -10292,107 +10292,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>1657</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>230443</t>
+          <t>874588</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>214085</t>
+          <t>843080</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>248852</t>
+          <t>901841</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>34,99%</t>
+          <t>59,98%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>57,82%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>37,78%</t>
+          <t>61,85%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>137416</t>
+          <t>699779</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>124805</t>
+          <t>670383</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>153485</t>
+          <t>733587</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>44,83%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>17,44%</t>
+          <t>42,95%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>47,0%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>2958</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>367859</t>
+          <t>1574367</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>344637</t>
+          <t>1529751</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>392449</t>
+          <t>1617604</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>26,77%</t>
+          <t>52,15%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>25,08%</t>
+          <t>50,67%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>53,58%</t>
         </is>
       </c>
     </row>
@@ -10405,107 +10405,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>58209</t>
+          <t>43788</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>47853</t>
+          <t>33327</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>71382</t>
+          <t>56773</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>17110</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>11443</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>24826</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1,1%</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>0,73%</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
           <t>95</t>
         </is>
       </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>40454</t>
-        </is>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>31303</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="inlineStr">
-        <is>
-          <t>53172</t>
-        </is>
-      </c>
-      <c r="N29" s="2" t="inlineStr">
-        <is>
-          <t>5,65%</t>
-        </is>
-      </c>
-      <c r="O29" s="2" t="inlineStr">
-        <is>
-          <t>4,38%</t>
-        </is>
-      </c>
-      <c r="P29" s="2" t="inlineStr">
-        <is>
-          <t>7,43%</t>
-        </is>
-      </c>
-      <c r="Q29" s="2" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>98663</t>
+          <t>60899</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>85102</t>
+          <t>48971</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>114822</t>
+          <t>74948</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>2,48%</t>
         </is>
       </c>
     </row>
@@ -10518,107 +10518,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>730</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>211306</t>
+          <t>333900</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>194559</t>
+          <t>309659</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>232207</t>
+          <t>359765</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>32,08%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>29,54%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>1032</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>284352</t>
+          <t>544211</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>264819</t>
+          <t>512147</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>304214</t>
+          <t>572312</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>39,74%</t>
+          <t>34,86%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>37,01%</t>
+          <t>32,81%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>42,52%</t>
+          <t>36,66%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>1183</t>
+          <t>1762</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>495658</t>
+          <t>878111</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>469083</t>
+          <t>841375</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>522074</t>
+          <t>921570</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>36,07%</t>
+          <t>29,09%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>34,14%</t>
+          <t>27,87%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>37,99%</t>
+          <t>30,53%</t>
         </is>
       </c>
     </row>
@@ -10631,22 +10631,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>1584</t>
+          <t>2849</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>658675</t>
+          <t>1458120</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>658675</t>
+          <t>1458120</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>658675</t>
+          <t>1458120</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -10666,22 +10666,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>1773</t>
+          <t>2869</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>715494</t>
+          <t>1560931</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>715494</t>
+          <t>1560931</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>715494</t>
+          <t>1560931</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -10701,22 +10701,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>3357</t>
+          <t>5718</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1374169</t>
+          <t>3019051</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1374169</t>
+          <t>3019051</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1374169</t>
+          <t>3019051</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
